--- a/data/pca/factorExposure/factorExposure_2013-02-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-02-11.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0006924771385771021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001835199565840692</v>
+      </c>
+      <c r="C2">
+        <v>-0.03238643675526708</v>
+      </c>
+      <c r="D2">
+        <v>-0.004628516511239846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001179660919764401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006258138211094272</v>
+      </c>
+      <c r="C4">
+        <v>-0.0841855773141492</v>
+      </c>
+      <c r="D4">
+        <v>-0.07871253313966975</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>1.157903790292086e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01409843196400806</v>
+      </c>
+      <c r="C6">
+        <v>-0.1132185642772189</v>
+      </c>
+      <c r="D6">
+        <v>-0.03257282442733161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001580578503760473</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004950051490463174</v>
+      </c>
+      <c r="C7">
+        <v>-0.05709778471649235</v>
+      </c>
+      <c r="D7">
+        <v>-0.03551509507068219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0004274600648933211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005790035922516904</v>
+      </c>
+      <c r="C8">
+        <v>-0.03800914342094935</v>
+      </c>
+      <c r="D8">
+        <v>-0.04481332909822865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003788528082653542</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004396255424142984</v>
+      </c>
+      <c r="C9">
+        <v>-0.07051358754121474</v>
+      </c>
+      <c r="D9">
+        <v>-0.07065111813494426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.00289687806541258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005375907336298834</v>
+      </c>
+      <c r="C10">
+        <v>-0.05729813772713904</v>
+      </c>
+      <c r="D10">
+        <v>0.1979244608081193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002800683660538311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005736452719042519</v>
+      </c>
+      <c r="C11">
+        <v>-0.08059186293456012</v>
+      </c>
+      <c r="D11">
+        <v>-0.06115400954889538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004061095971705311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.00405294643433816</v>
+      </c>
+      <c r="C12">
+        <v>-0.06388730641915809</v>
+      </c>
+      <c r="D12">
+        <v>-0.04694251028671234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003171915571952264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008660043963585506</v>
+      </c>
+      <c r="C13">
+        <v>-0.06583298546075465</v>
+      </c>
+      <c r="D13">
+        <v>-0.06383817958583651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001074602456366787</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001574958237470088</v>
+      </c>
+      <c r="C14">
+        <v>-0.04629993278169525</v>
+      </c>
+      <c r="D14">
+        <v>-0.006000110972022923</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.000556919598996526</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006030504060645613</v>
+      </c>
+      <c r="C15">
+        <v>-0.04284067716214221</v>
+      </c>
+      <c r="D15">
+        <v>-0.02796205176925571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001109987077723433</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005065700526379219</v>
+      </c>
+      <c r="C16">
+        <v>-0.06571061419047873</v>
+      </c>
+      <c r="D16">
+        <v>-0.04699012331348568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0003743156699792855</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008879879018635423</v>
+      </c>
+      <c r="C20">
+        <v>-0.06582505722987948</v>
+      </c>
+      <c r="D20">
+        <v>-0.04358099254920271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005341879699021286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.0100360380036004</v>
+      </c>
+      <c r="C21">
+        <v>-0.02178133385102098</v>
+      </c>
+      <c r="D21">
+        <v>-0.0355620943317402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01785575571057092</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006629470540943428</v>
+      </c>
+      <c r="C22">
+        <v>-0.09504808637067283</v>
+      </c>
+      <c r="D22">
+        <v>-0.1015591975358031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01816285275314283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006447572528463233</v>
+      </c>
+      <c r="C23">
+        <v>-0.09585628412035102</v>
+      </c>
+      <c r="D23">
+        <v>-0.1017773520113418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.00149916160671057</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005428724685075451</v>
+      </c>
+      <c r="C24">
+        <v>-0.07612415515367227</v>
+      </c>
+      <c r="D24">
+        <v>-0.06062642961120938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003681626877496767</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.00297859103961139</v>
+      </c>
+      <c r="C25">
+        <v>-0.07780620844352795</v>
+      </c>
+      <c r="D25">
+        <v>-0.06589692099052855</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005276490052763702</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.00360253983828402</v>
+      </c>
+      <c r="C26">
+        <v>-0.04141406571770142</v>
+      </c>
+      <c r="D26">
+        <v>-0.02130658806036404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005561075524063067</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0009670068924794581</v>
+      </c>
+      <c r="C28">
+        <v>-0.1061228572772295</v>
+      </c>
+      <c r="D28">
+        <v>0.3163391519868304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001090709135080887</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003203958661990445</v>
+      </c>
+      <c r="C29">
+        <v>-0.04960041778647406</v>
+      </c>
+      <c r="D29">
+        <v>-0.004118688013329212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002939302651773175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009491417867717056</v>
+      </c>
+      <c r="C30">
+        <v>-0.1428010606059582</v>
+      </c>
+      <c r="D30">
+        <v>-0.0927829743959907</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0008249897444871979</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.00627563901723099</v>
+      </c>
+      <c r="C31">
+        <v>-0.04577254603553214</v>
+      </c>
+      <c r="D31">
+        <v>-0.03043348414573363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0008802146001511438</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004094002883950613</v>
+      </c>
+      <c r="C32">
+        <v>-0.04132986179098209</v>
+      </c>
+      <c r="D32">
+        <v>-0.01758989556091144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002344499758791777</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008323984003678087</v>
+      </c>
+      <c r="C33">
+        <v>-0.08626178401271019</v>
+      </c>
+      <c r="D33">
+        <v>-0.06953647275353386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004214688360762065</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.00396631486993471</v>
+      </c>
+      <c r="C34">
+        <v>-0.05758534674708467</v>
+      </c>
+      <c r="D34">
+        <v>-0.05241480251679315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002122272971068445</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005093046089326552</v>
+      </c>
+      <c r="C35">
+        <v>-0.04016541606953103</v>
+      </c>
+      <c r="D35">
+        <v>-0.01595108197701019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004149768102994738</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001197682856564449</v>
+      </c>
+      <c r="C36">
+        <v>-0.02457279557854578</v>
+      </c>
+      <c r="D36">
+        <v>-0.02183340194715916</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002665071740091206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009541061464371213</v>
+      </c>
+      <c r="C38">
+        <v>-0.03516617466365924</v>
+      </c>
+      <c r="D38">
+        <v>-0.0142458667179235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01177150640734533</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0005612782934593522</v>
+      </c>
+      <c r="C39">
+        <v>-0.1164132422177735</v>
+      </c>
+      <c r="D39">
+        <v>-0.07154208912375465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009179037880772916</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002535939313977064</v>
+      </c>
+      <c r="C40">
+        <v>-0.08818570723225687</v>
+      </c>
+      <c r="D40">
+        <v>-0.01929554821964009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001450438260851959</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007270883973933338</v>
+      </c>
+      <c r="C41">
+        <v>-0.03756492503317375</v>
+      </c>
+      <c r="D41">
+        <v>-0.03391604921201686</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003261561429101494</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003872754680206167</v>
+      </c>
+      <c r="C43">
+        <v>-0.05278370686798335</v>
+      </c>
+      <c r="D43">
+        <v>-0.02305539024839686</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002662293648631308</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003313329530436661</v>
+      </c>
+      <c r="C44">
+        <v>-0.1100784898272147</v>
+      </c>
+      <c r="D44">
+        <v>-0.07030501437321611</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001290526291531691</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002261114801451581</v>
+      </c>
+      <c r="C46">
+        <v>-0.03322297614999091</v>
+      </c>
+      <c r="D46">
+        <v>-0.0322240423730502</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.000420934962821397</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002670088792201352</v>
+      </c>
+      <c r="C47">
+        <v>-0.03732384917189487</v>
+      </c>
+      <c r="D47">
+        <v>-0.02207572619638103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003387457985587981</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006525758943855813</v>
+      </c>
+      <c r="C48">
+        <v>-0.02970002155632977</v>
+      </c>
+      <c r="D48">
+        <v>-0.03146398303579013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01301816465693255</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01521988475208876</v>
+      </c>
+      <c r="C49">
+        <v>-0.1821218769652059</v>
+      </c>
+      <c r="D49">
+        <v>-0.01157765383424017</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001899901544642925</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003620312176975375</v>
+      </c>
+      <c r="C50">
+        <v>-0.04417785619415655</v>
+      </c>
+      <c r="D50">
+        <v>-0.03369330903990927</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.000787554195945407</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004442380398156145</v>
+      </c>
+      <c r="C51">
+        <v>-0.0266731359343145</v>
+      </c>
+      <c r="D51">
+        <v>-0.01808019166894916</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0006613804188962936</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02078013427359856</v>
+      </c>
+      <c r="C53">
+        <v>-0.1693557840498006</v>
+      </c>
+      <c r="D53">
+        <v>-0.03219042567547137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001232548466058271</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008649385304233903</v>
+      </c>
+      <c r="C54">
+        <v>-0.05504942871929273</v>
+      </c>
+      <c r="D54">
+        <v>-0.04299607371462791</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003889338239967766</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009509841416379269</v>
+      </c>
+      <c r="C55">
+        <v>-0.1097342903837911</v>
+      </c>
+      <c r="D55">
+        <v>-0.04195977594050534</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003668191823676376</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02000515801451042</v>
+      </c>
+      <c r="C56">
+        <v>-0.1746429889884483</v>
+      </c>
+      <c r="D56">
+        <v>-0.03225063394428271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007290380486408421</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01976300365880428</v>
+      </c>
+      <c r="C58">
+        <v>-0.1109195943017494</v>
+      </c>
+      <c r="D58">
+        <v>-0.04976650919616468</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006588916521787647</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009680992204235373</v>
+      </c>
+      <c r="C59">
+        <v>-0.1627320010032111</v>
+      </c>
+      <c r="D59">
+        <v>0.3118559779741766</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004404536557073609</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02368853850886432</v>
+      </c>
+      <c r="C60">
+        <v>-0.2204439691012507</v>
+      </c>
+      <c r="D60">
+        <v>-0.03447647757832483</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01343730473664947</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001676385780473965</v>
+      </c>
+      <c r="C61">
+        <v>-0.09602524268498752</v>
+      </c>
+      <c r="D61">
+        <v>-0.05750431215385336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1667839048893921</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.144541851118925</v>
+      </c>
+      <c r="C62">
+        <v>-0.09105992512457792</v>
+      </c>
+      <c r="D62">
+        <v>-0.04994707114048642</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0008115127078713526</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006247345580254459</v>
+      </c>
+      <c r="C63">
+        <v>-0.05541187666110295</v>
+      </c>
+      <c r="D63">
+        <v>-0.02306218440446298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.001195423910012794</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01534288491196153</v>
+      </c>
+      <c r="C64">
+        <v>-0.1047073610117646</v>
+      </c>
+      <c r="D64">
+        <v>-0.05863957657113019</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002680697572229467</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01782746884331027</v>
+      </c>
+      <c r="C65">
+        <v>-0.1220142450523182</v>
+      </c>
+      <c r="D65">
+        <v>-0.01777552768819598</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.006681204021157518</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01309253293573794</v>
+      </c>
+      <c r="C66">
+        <v>-0.1595015339235327</v>
+      </c>
+      <c r="D66">
+        <v>-0.1157617013176822</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.00404127713479371</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01569254788037094</v>
+      </c>
+      <c r="C67">
+        <v>-0.0660356003112603</v>
+      </c>
+      <c r="D67">
+        <v>-0.02392087953895559</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006843547606378259</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0005515450615343864</v>
+      </c>
+      <c r="C68">
+        <v>-0.08665613640406467</v>
+      </c>
+      <c r="D68">
+        <v>0.255764237427968</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002104472865098244</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006127809164993027</v>
+      </c>
+      <c r="C69">
+        <v>-0.05050782768339526</v>
+      </c>
+      <c r="D69">
+        <v>-0.03737996580971097</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.000311468328128807</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001900174291104648</v>
+      </c>
+      <c r="C70">
+        <v>-0.002930999625059327</v>
+      </c>
+      <c r="D70">
+        <v>-0.0005809321802978371</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0005295049489170342</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005860930733439035</v>
+      </c>
+      <c r="C71">
+        <v>-0.09729289702330257</v>
+      </c>
+      <c r="D71">
+        <v>0.3069309323793201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003312972393805474</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01604717769997394</v>
+      </c>
+      <c r="C72">
+        <v>-0.1527955366190479</v>
+      </c>
+      <c r="D72">
+        <v>-0.02066664756210803</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01109890264470429</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03044822716735338</v>
+      </c>
+      <c r="C73">
+        <v>-0.2778242371886069</v>
+      </c>
+      <c r="D73">
+        <v>-0.04858733171713588</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004162206896955825</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001906940245405681</v>
+      </c>
+      <c r="C74">
+        <v>-0.1055428042618512</v>
+      </c>
+      <c r="D74">
+        <v>-0.03633659318251514</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.00217235121653157</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01102103634135479</v>
+      </c>
+      <c r="C75">
+        <v>-0.1275214486742131</v>
+      </c>
+      <c r="D75">
+        <v>-0.0250956529178051</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009816737913214673</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02177040461668502</v>
+      </c>
+      <c r="C76">
+        <v>-0.1499508054998098</v>
+      </c>
+      <c r="D76">
+        <v>-0.06149142286800027</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0002193658274557897</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02378484769577689</v>
+      </c>
+      <c r="C77">
+        <v>-0.1289502887946358</v>
+      </c>
+      <c r="D77">
+        <v>-0.07993326061511677</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0008793494452188137</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01464845424718506</v>
+      </c>
+      <c r="C78">
+        <v>-0.09451644989361517</v>
+      </c>
+      <c r="D78">
+        <v>-0.07000668472163152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02435675707446983</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03753248703048152</v>
+      </c>
+      <c r="C79">
+        <v>-0.1554298686466692</v>
+      </c>
+      <c r="D79">
+        <v>-0.03564686006315185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006124233553699297</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01049996471557289</v>
+      </c>
+      <c r="C80">
+        <v>-0.04140573616603774</v>
+      </c>
+      <c r="D80">
+        <v>-0.03039499504536262</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001564713175573475</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.0154767583839066</v>
+      </c>
+      <c r="C81">
+        <v>-0.128234952543232</v>
+      </c>
+      <c r="D81">
+        <v>-0.04033771446038208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006030283911701603</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01979047253591287</v>
+      </c>
+      <c r="C82">
+        <v>-0.1419723388254689</v>
+      </c>
+      <c r="D82">
+        <v>-0.04223331279132186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008542384360115231</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01009234610221331</v>
+      </c>
+      <c r="C83">
+        <v>-0.05707804802273601</v>
+      </c>
+      <c r="D83">
+        <v>-0.0573292188023382</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01344574411528568</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01165646265850704</v>
+      </c>
+      <c r="C84">
+        <v>-0.03613478796043947</v>
+      </c>
+      <c r="D84">
+        <v>0.01110659735404529</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.0140195258633495</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02814300419476646</v>
+      </c>
+      <c r="C85">
+        <v>-0.1252818463797621</v>
+      </c>
+      <c r="D85">
+        <v>-0.0476480494539829</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002340458574081682</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005840739782877771</v>
+      </c>
+      <c r="C86">
+        <v>-0.04898099623740317</v>
+      </c>
+      <c r="D86">
+        <v>-0.02045047098724544</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.002900779955574476</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01016829719201706</v>
+      </c>
+      <c r="C87">
+        <v>-0.1308360133424898</v>
+      </c>
+      <c r="D87">
+        <v>-0.07273324799534026</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01178586512601999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.00281126943031176</v>
+      </c>
+      <c r="C88">
+        <v>-0.06728973870244566</v>
+      </c>
+      <c r="D88">
+        <v>-0.0131925281397794</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01416770377643306</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001343353956833129</v>
+      </c>
+      <c r="C89">
+        <v>-0.1467435034049058</v>
+      </c>
+      <c r="D89">
+        <v>0.3444897234618489</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002659609272523402</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006851757566701996</v>
+      </c>
+      <c r="C90">
+        <v>-0.1206957234091186</v>
+      </c>
+      <c r="D90">
+        <v>0.323972089867037</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006793941201809969</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01049420432831126</v>
+      </c>
+      <c r="C91">
+        <v>-0.1032489247173332</v>
+      </c>
+      <c r="D91">
+        <v>-0.0225517521246608</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007952673907532785</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0008103608288805346</v>
+      </c>
+      <c r="C92">
+        <v>-0.1360022652593662</v>
+      </c>
+      <c r="D92">
+        <v>0.3292796858951241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0002127410052869635</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004830273944250647</v>
+      </c>
+      <c r="C93">
+        <v>-0.104993718248337</v>
+      </c>
+      <c r="D93">
+        <v>0.3080013818710887</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003372704975643008</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02267861184332446</v>
+      </c>
+      <c r="C94">
+        <v>-0.1495551661641939</v>
+      </c>
+      <c r="D94">
+        <v>-0.05317178047414101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004363975118173645</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01633521590508924</v>
+      </c>
+      <c r="C95">
+        <v>-0.1263663803247882</v>
+      </c>
+      <c r="D95">
+        <v>-0.05631854761141755</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0008479700270611554</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03591817912334301</v>
+      </c>
+      <c r="C97">
+        <v>-0.2116502922231055</v>
+      </c>
+      <c r="D97">
+        <v>0.009605769523162591</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003139680799212873</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03658420666586835</v>
+      </c>
+      <c r="C98">
+        <v>-0.2486311852503205</v>
+      </c>
+      <c r="D98">
+        <v>-0.04747291120498695</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9841765960843701</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9822756856704218</v>
+      </c>
+      <c r="C99">
+        <v>0.115889665997578</v>
+      </c>
+      <c r="D99">
+        <v>0.02832639787242984</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001002392732378742</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003240781274885382</v>
+      </c>
+      <c r="C101">
+        <v>-0.04978363671966188</v>
+      </c>
+      <c r="D101">
+        <v>-0.004207327439722464</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
